--- a/智慧化燃燒器V5.xlsx
+++ b/智慧化燃燒器V5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20377"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ken\110\智慧燃燒器\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ncku365-my.sharepoint.com/personal/r56081114_ncku_edu_tw/Documents/金屬中心-one drive/VSCODE/燃燒器噴嘴/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06256D8D-4DBA-4D33-8890-C7A2BD6C1CB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{06256D8D-4DBA-4D33-8890-C7A2BD6C1CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E1F52F5-A00D-45EF-80A7-BDDD6E29C733}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -406,15 +415,15 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="J10" sqref="J10:M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.75" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="10" width="12.453125" customWidth="1"/>
+    <col min="2" max="10" width="12.4609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -446,7 +455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>10</v>
       </c>
@@ -480,7 +489,7 @@
         <v>210.2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>10</v>
       </c>
@@ -514,7 +523,7 @@
         <v>179.315</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>10</v>
       </c>
@@ -548,7 +557,7 @@
         <v>154.24420000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>11</v>
       </c>
@@ -582,7 +591,7 @@
         <v>177.65</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>11</v>
       </c>
@@ -616,7 +625,7 @@
         <v>157.16999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>11</v>
       </c>
@@ -650,7 +659,7 @@
         <v>131.21</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -662,7 +671,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -674,7 +683,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -686,7 +695,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -698,7 +707,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -710,7 +719,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -722,7 +731,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -734,7 +743,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -746,7 +755,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -758,7 +767,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -770,7 +779,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -782,7 +791,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -794,79 +803,37 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
